--- a/WeeklyReport_BATeam/memberReports/MemberReports_02112020/BCT.xlsx
+++ b/WeeklyReport_BATeam/memberReports/MemberReports_02112020/BCT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HPT\1. Projects\2. RPA\Internal_WeeklyReport\Development\Mail Attachments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThanhDQ\Documents\UiPath\WeeklyReport_BATeam\memberReports\MemberReports_02112020\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -290,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -301,12 +307,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -326,12 +326,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -371,6 +365,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -652,10 +651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J5"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,115 +670,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
       <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
@@ -789,114 +788,138 @@
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="24">
         <v>1</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="26">
         <v>1</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="24"/>
+      <c r="F10" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="26"/>
+      <c r="H10" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="4" t="s">
+      <c r="I10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>3</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="2" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13" t="s">
+      <c r="E11" s="24"/>
+      <c r="F11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="26">
         <v>0.8</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="2" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="13" t="s">
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="26">
         <v>0.9</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="H12" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -914,6 +937,7 @@
     <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -923,7 +947,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:J5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,171 +963,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="17" t="s">
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="17" t="s">
+      <c r="J7" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
+      <c r="A10" s="8">
         <v>2</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="8" t="s">
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="3"/>
